--- a/trunk/ddsh/设计师名单.xlsx
+++ b/trunk/ddsh/设计师名单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>C-11</t>
   </si>
@@ -60,12 +60,6 @@
     <t>手绘世博</t>
   </si>
   <si>
-    <t>C-2</t>
-  </si>
-  <si>
-    <t>模范镇</t>
-  </si>
-  <si>
     <t>C-21</t>
   </si>
   <si>
@@ -207,12 +201,64 @@
     <t>王赖赖</t>
   </si>
   <si>
-    <t>AB-all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>idcard</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>submitdate</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>verifydate</t>
+  </si>
+  <si>
+    <t>updateby</t>
+  </si>
+  <si>
+    <t>updatedate</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>xx设计师</t>
   </si>
 </sst>
 </file>
@@ -258,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +313,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,380 +611,1115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="16.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:18" ht="16.5" customHeight="1">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1">
-        <v>123456</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" customHeight="1">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1">
-        <v>123457</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>13761844061</v>
+      </c>
+      <c r="G2">
+        <v>12345679</v>
+      </c>
+      <c r="H2">
+        <v>45566</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>40362.54383101852</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>40363.54383101852</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1">
         <v>123458</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>40364.54383101852</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="1">
         <v>123459</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="1">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>40365.54383101852</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="1">
         <v>123460</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>40366.54383101852</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1">
         <v>123461</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>40367.54383101852</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="1">
         <v>123462</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>40368.54383101852</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="1">
         <v>123463</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>40369.54383101852</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="1">
         <v>123464</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>40370.54383101852</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="1">
         <v>123465</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>40371.54383101852</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="1">
         <v>123466</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>40372.54383101852</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="1">
         <v>123467</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>40373.54383101852</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>123468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1">
-        <v>123468</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>40374.54383101852</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>123469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1">
-        <v>123469</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>40375.54383101852</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>123470</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1">
-        <v>123470</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>40376.54383101852</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>123471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1">
-        <v>123471</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>40377.54383101852</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>123472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1">
-        <v>123472</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>40378.54383101852</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="1">
         <v>123473</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>40379.54383101852</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>123474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="1">
-        <v>123474</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>40380.54383101852</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>123475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="1">
-        <v>123475</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>40381.54383101852</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>123476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="1">
-        <v>123476</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>40382.54383101852</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>123477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1">
-        <v>123477</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>40383.54383101852</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="1">
         <v>123478</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>40384.54383101852</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>123479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="1">
-        <v>123479</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>40385.54383101852</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>123480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="1">
-        <v>123480</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>40386.54383101852</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>123481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="1">
-        <v>123481</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>40387.54383101852</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>123482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="1">
-        <v>123482</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>40388.54383101852</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>123483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="1">
-        <v>123483</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="1">
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>40389.54383101852</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="1">
         <v>123484</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>40390.54383101852</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>123485</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="1">
-        <v>123485</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
+        <v>40391.54383101852</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>123486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="1">
-        <v>123486</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>40392.54383101852</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>123487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="1">
-        <v>123487</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="1">
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3">
+        <v>40393.54383101852</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="1">
         <v>123488</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>62</v>
-      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="Q34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
